--- a/DataBaseFile/JeuxDeDonnéesSMS.xlsx
+++ b/DataBaseFile/JeuxDeDonnéesSMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thex2\Desktop\Cours\Semestre_2\BDD\miniprojet\School-management-system\DataBaseFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeyvo\Documents\GitHub\School-management-system\DataBaseFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2902CB01-2E55-49FF-9C4A-7533C328E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9136B0-127B-4972-A54B-E7517DB50135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etudiants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>EtudCPS</t>
   </si>
@@ -311,9 +311,6 @@
     <t>E782698570</t>
   </si>
   <si>
-    <t>E186215458</t>
-  </si>
-  <si>
     <t>Sanae</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>Yassir</t>
   </si>
   <si>
-    <t>lamiae</t>
+    <t>EtudID</t>
   </si>
 </sst>
 </file>
@@ -400,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +410,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -727,39 +730,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y11"/>
+  <dimension ref="A2:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +840,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
       <c r="B3" s="2">
         <v>10000</v>
       </c>
@@ -905,125 +915,156 @@
       </c>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
         <v>14000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>14000</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="V5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
       <c r="B6" s="2">
         <v>10000</v>
       </c>
@@ -1033,16 +1074,16 @@
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1084,136 +1125,167 @@
       <c r="U6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>55</v>
+      <c r="V6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>14000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14000</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="L8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="O8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W7" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>14000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
       <c r="B9" s="2">
         <v>10000</v>
       </c>
@@ -1223,16 +1295,16 @@
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1277,131 +1349,89 @@
       <c r="V9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>55</v>
+      <c r="W9" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
         <v>14000</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>14000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1416,14 +1446,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1445,7 +1475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1456,7 +1486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1480,14 +1510,14 @@
       <selection activeCell="E9" sqref="E9:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1520,7 +1550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1544,15 +1574,15 @@
       <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1566,7 +1596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1580,7 +1610,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1594,7 +1624,7 @@
         <v>44087</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1608,7 +1638,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1622,7 +1652,7 @@
         <v>43723</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1636,7 +1666,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1664,7 +1694,7 @@
         <v>43361</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1678,7 +1708,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1693,13 +1723,13 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J14" s="4"/>
     </row>
   </sheetData>
@@ -1715,17 +1745,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1745,7 +1775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1762,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1782,7 +1812,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1819,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1839,7 +1869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1859,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1876,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1896,7 +1926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
